--- a/23-Machine Learning/02_391L/Calculation-Score.xlsx
+++ b/23-Machine Learning/02_391L/Calculation-Score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Study Notes\23-Machine Learning\02_391L\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C0D020-7BFB-480E-BEFB-0ACCEB8B16AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4B99B0-F237-4E69-AFB3-C7F5CAB650E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="B3:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,24 +409,24 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <f>D3/D$13*C$13</f>
+        <f t="shared" ref="C3:C12" si="0">D3/D$13*C$13</f>
         <v>4.355300859598854E-2</v>
       </c>
       <c r="D3">
         <v>38</v>
       </c>
       <c r="E3">
-        <v>33.909999999999997</v>
+        <v>35.65</v>
       </c>
       <c r="F3" s="6">
         <f>E3/D3*C3</f>
-        <v>3.8865329512893981E-2</v>
+        <v>4.0859598853868195E-2</v>
       </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C4" s="2">
-        <f>D4/D$13*C$13</f>
+        <f t="shared" si="0"/>
         <v>5.272206303724928E-2</v>
       </c>
       <c r="D4">
@@ -446,7 +446,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <f>D5/D$13*C$13</f>
+        <f t="shared" si="0"/>
         <v>4.584527220630373E-2</v>
       </c>
       <c r="D5">
@@ -460,7 +460,7 @@
     </row>
     <row r="6" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="2">
-        <f>D6/D$13*C$13</f>
+        <f t="shared" si="0"/>
         <v>4.1260744985673357E-2</v>
       </c>
       <c r="D6">
@@ -477,7 +477,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="2">
-        <f>D7/D$13*C$13</f>
+        <f t="shared" si="0"/>
         <v>2.9799426934097425E-2</v>
       </c>
       <c r="D7">
@@ -491,7 +491,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C8" s="2">
-        <f>D8/D$13*C$13</f>
+        <f t="shared" si="0"/>
         <v>2.0630372492836679E-2</v>
       </c>
       <c r="D8">
@@ -508,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="2">
-        <f>D9/D$13*C$13</f>
+        <f t="shared" si="0"/>
         <v>5.1575931232091692E-2</v>
       </c>
       <c r="D9">
@@ -525,7 +525,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="2">
-        <f>D10/D$13*C$13</f>
+        <f t="shared" si="0"/>
         <v>3.4383954154727794E-2</v>
       </c>
       <c r="D10">
@@ -539,7 +539,7 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C11" s="2">
-        <f>D11/D$13*C$13</f>
+        <f t="shared" si="0"/>
         <v>4.584527220630373E-2</v>
       </c>
       <c r="D11">
@@ -556,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="4">
-        <f>D12/D$13*C$13</f>
+        <f t="shared" si="0"/>
         <v>3.4383954154727794E-2</v>
       </c>
       <c r="D12" s="3">
@@ -626,7 +626,7 @@
       </c>
       <c r="D18">
         <f>40*SUM(E3:E12)/D13+60*SUM(E14:E15)/D16</f>
-        <v>90.067048710601711</v>
+        <v>90.266475644699142</v>
       </c>
     </row>
   </sheetData>
